--- a/doc/NLP方案20190227.xlsx
+++ b/doc/NLP方案20190227.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinedu-my.sharepoint.com/personal/a2982_myoffice_site/Documents/我的工作/Java教育(Class AI)/4 基盘设计/Stage5_NLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD98DCF-B627-6C4D-AFB5-5DDC659FE3AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00542D-3A72-7741-9F80-AF0A63B07056}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="27660" windowHeight="17460" activeTab="2" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="27660" windowHeight="17460" activeTab="3" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
     <sheet name="20190220" sheetId="2" r:id="rId2"/>
     <sheet name="20190227" sheetId="3" r:id="rId3"/>
+    <sheet name="20190228" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +632,82 @@
   </si>
   <si>
     <t>// 太子，就是这个what的实际值</t>
+  </si>
+  <si>
+    <t>【入力的数据结构】</t>
+  </si>
+  <si>
+    <t>【出力结果（第一层）】</t>
+  </si>
+  <si>
+    <t>【出力结果（第二层）】</t>
+  </si>
+  <si>
+    <t>什么1={</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太子=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（实际值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎样1={</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟={</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么2={</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   |-----------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎样1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么（辅臣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   |</t>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太子1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -735,12 +812,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val=".PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -755,6 +826,12 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -892,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,13 +1042,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -981,6 +1058,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5689,7 +5769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42465A32-07A8-A441-B3B4-5097F64B2652}">
   <dimension ref="B2:U76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A35" zoomScale="60" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="S46" sqref="S46:U46"/>
     </sheetView>
   </sheetViews>
@@ -6587,7 +6667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A13F2-8CE3-AD4D-AD0D-7614D209A3B2}">
   <dimension ref="B2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="127" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="127" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -6874,4 +6954,241 @@
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5403643D-70EC-C840-9A75-FB88A58AD28A}">
+  <dimension ref="B2:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15">
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15">
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15">
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="8:15">
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="8:15">
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15">
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>